--- a/analysis/results.xlsx
+++ b/analysis/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/michiel_vandromme_student_kuleuven_be/Documents/Optimalisatietechnieken/Opdracht/Umpire_Problem/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{88C60EB9-5E82-49C9-9862-311738CF97CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BC0454-C0D2-4556-AD97-7F8BCA62D363}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{88C60EB9-5E82-49C9-9862-311738CF97CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9711A7C3-C379-4497-B35A-272685431D1B}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{EB671497-C5BD-4FD1-9882-855BC250D188}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EB671497-C5BD-4FD1-9882-855BC250D188}"/>
   </bookViews>
   <sheets>
     <sheet name="Ump8" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="16">
   <si>
     <t>PARTIAL MATCH</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>nodes</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>7 2</t>
+  </si>
+  <si>
+    <t>hungarian no memoization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hungarian  </t>
+  </si>
+  <si>
+    <t>hungarian mem</t>
+  </si>
+  <si>
+    <t>7-3</t>
   </si>
 </sst>
 </file>
@@ -133,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -141,6 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -156,6 +187,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA5A11-188A-4AF7-8BCD-3AC26D470A4F}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,24 +627,575 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AFADA6-1B98-49BF-AAB6-1619DAC12C6E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>10384</v>
+      </c>
+      <c r="C8">
+        <v>6990</v>
+      </c>
+      <c r="D8">
+        <v>14290</v>
+      </c>
+      <c r="E8">
+        <v>8076</v>
+      </c>
+      <c r="F8">
+        <v>16403</v>
+      </c>
+      <c r="G8">
+        <v>10946</v>
+      </c>
+      <c r="H8">
+        <v>12214</v>
+      </c>
+      <c r="I8">
+        <v>18391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4072120</v>
+      </c>
+      <c r="C9">
+        <v>11207356</v>
+      </c>
+      <c r="D9">
+        <v>8342561</v>
+      </c>
+      <c r="E9">
+        <v>23385267</v>
+      </c>
+      <c r="F9">
+        <v>12199394</v>
+      </c>
+      <c r="G9">
+        <v>5970582</v>
+      </c>
+      <c r="H9">
+        <v>4078491</v>
+      </c>
+      <c r="I9">
+        <v>8353779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>86889</v>
+      </c>
+      <c r="C10">
+        <v>86889</v>
+      </c>
+      <c r="D10">
+        <v>86889</v>
+      </c>
+      <c r="E10">
+        <v>86889</v>
+      </c>
+      <c r="F10">
+        <v>86889</v>
+      </c>
+      <c r="G10">
+        <v>86889</v>
+      </c>
+      <c r="H10">
+        <v>86889</v>
+      </c>
+      <c r="I10">
+        <v>86889</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F86D57-EBDE-4D4D-9518-97B98387EBFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>326319</v>
+      </c>
+      <c r="C8">
+        <v>355259</v>
+      </c>
+      <c r="D8">
+        <v>247005</v>
+      </c>
+      <c r="E8">
+        <v>509043</v>
+      </c>
+      <c r="F8">
+        <v>578986</v>
+      </c>
+      <c r="L8">
+        <v>242857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>192029889</v>
+      </c>
+      <c r="C9">
+        <v>218730424</v>
+      </c>
+      <c r="D9">
+        <v>1589714355</v>
+      </c>
+      <c r="E9">
+        <v>190239080</v>
+      </c>
+      <c r="F9">
+        <v>473035157</v>
+      </c>
+      <c r="L9">
+        <v>1551430460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>146656</v>
+      </c>
+      <c r="C10">
+        <v>146656</v>
+      </c>
+      <c r="D10">
+        <v>146656</v>
+      </c>
+      <c r="E10">
+        <v>146656</v>
+      </c>
+      <c r="F10">
+        <v>146656</v>
+      </c>
+      <c r="L10">
+        <v>164440</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
